--- a/runs/run682/NotionalETEOutput682.xlsx
+++ b/runs/run682/NotionalETEOutput682.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND3_State_Update</t>
+    <t>Missile_SOMERSAULT3_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND3_93.MISSILE_HIGHWIND3_93</t>
+    <t>MISSILE_SOMERSAULT3_33.MISSILE_SOMERSAULT3_33</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND3</t>
+    <t>MISSILE_SOMERSAULT3</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1535.984122542086</v>
+        <v>-1523.684086830252</v>
       </c>
       <c r="J2">
-        <v>2007.906768208065</v>
+        <v>1943.468809633246</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1512.923991757796</v>
+        <v>-1444.547227608454</v>
       </c>
       <c r="J3">
-        <v>1885.384233792353</v>
+        <v>1872.14152471542</v>
       </c>
       <c r="K3">
-        <v>308.1416665381379</v>
+        <v>303.5403754155408</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1444.313324328275</v>
+        <v>-1478.289343311571</v>
       </c>
       <c r="J4">
-        <v>1832.554361802127</v>
+        <v>1893.21281556202</v>
       </c>
       <c r="K4">
-        <v>615.8870548013471</v>
+        <v>591.6785450842308</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1474.330928916021</v>
+        <v>-1437.362043837666</v>
       </c>
       <c r="J5">
-        <v>1805.529690722007</v>
+        <v>1942.850451589494</v>
       </c>
       <c r="K5">
-        <v>903.1252341600529</v>
+        <v>873.329675846104</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1337.458373310843</v>
+        <v>-1345.705463728319</v>
       </c>
       <c r="J6">
-        <v>1829.913988010983</v>
+        <v>1820.970149421625</v>
       </c>
       <c r="K6">
-        <v>1089.960082200696</v>
+        <v>1142.267143336607</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1298.440859702135</v>
+        <v>-1284.090652115356</v>
       </c>
       <c r="J7">
-        <v>1738.788408421558</v>
+        <v>1768.306053511692</v>
       </c>
       <c r="K7">
-        <v>1415.251427418357</v>
+        <v>1421.666688142513</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1353.316458812188</v>
+        <v>-1262.707019683028</v>
       </c>
       <c r="J8">
-        <v>1776.078161129563</v>
+        <v>1711.678551808935</v>
       </c>
       <c r="K8">
-        <v>1530.729447978479</v>
+        <v>1606.17299803181</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-95.95861475556094</v>
+        <v>-101.6060577293627</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1228.155263425091</v>
+        <v>-1258.014370214636</v>
       </c>
       <c r="J9">
-        <v>1640.448666177523</v>
+        <v>1697.818650677747</v>
       </c>
       <c r="K9">
-        <v>1884.522589691341</v>
+        <v>1811.975938157324</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>223.6818527041598</v>
+        <v>208.0933605468872</v>
       </c>
       <c r="G10">
-        <v>-79.74468415718513</v>
+        <v>-84.1430413343996</v>
       </c>
       <c r="H10">
-        <v>856.1814429215394</v>
+        <v>895.887205791565</v>
       </c>
       <c r="I10">
-        <v>-1288.718999631174</v>
+        <v>-1230.535242205043</v>
       </c>
       <c r="J10">
-        <v>1602.967168322236</v>
+        <v>1530.444148718978</v>
       </c>
       <c r="K10">
-        <v>2044.340437010012</v>
+        <v>1990.80727526225</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>174.5231904223766</v>
+        <v>166.6470074522112</v>
       </c>
       <c r="G11">
-        <v>-68.89266025309084</v>
+        <v>-69.92608914997527</v>
       </c>
       <c r="H11">
-        <v>1032.093571095103</v>
+        <v>1025.559762431207</v>
       </c>
       <c r="I11">
-        <v>-1151.531487526739</v>
+        <v>-1191.117263297276</v>
       </c>
       <c r="J11">
-        <v>1616.840359211997</v>
+        <v>1610.049502601048</v>
       </c>
       <c r="K11">
-        <v>2132.580902527839</v>
+        <v>2268.12341178854</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>138.6435039526604</v>
+        <v>137.3791446137801</v>
       </c>
       <c r="G12">
-        <v>-48.17915019783239</v>
+        <v>-52.42480366887406</v>
       </c>
       <c r="H12">
-        <v>1174.004983608596</v>
+        <v>1219.120614590418</v>
       </c>
       <c r="I12">
-        <v>-1198.157646220346</v>
+        <v>-1214.255784749877</v>
       </c>
       <c r="J12">
-        <v>1536.488659045983</v>
+        <v>1586.301126809274</v>
       </c>
       <c r="K12">
-        <v>2302.087684131377</v>
+        <v>2275.459563528023</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>125.2242420936302</v>
+        <v>116.4110603366559</v>
       </c>
       <c r="G13">
-        <v>-32.84934304015175</v>
+        <v>-34.38634831652338</v>
       </c>
       <c r="H13">
-        <v>1309.153520477052</v>
+        <v>1267.901059647811</v>
       </c>
       <c r="I13">
-        <v>-1117.260917174892</v>
+        <v>-1113.843276362944</v>
       </c>
       <c r="J13">
-        <v>1511.04223431104</v>
+        <v>1493.248251524592</v>
       </c>
       <c r="K13">
-        <v>2626.098914705299</v>
+        <v>2586.147598404036</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>111.5250430121999</v>
+        <v>111.9227273200435</v>
       </c>
       <c r="G14">
-        <v>-18.16580123118885</v>
+        <v>-18.30642174614835</v>
       </c>
       <c r="H14">
-        <v>1347.500833017457</v>
+        <v>1291.174989299015</v>
       </c>
       <c r="I14">
-        <v>-1078.297091492594</v>
+        <v>-1145.88722872207</v>
       </c>
       <c r="J14">
-        <v>1423.012399253618</v>
+        <v>1454.981582651104</v>
       </c>
       <c r="K14">
-        <v>2667.402197029455</v>
+        <v>2577.087264775261</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>95.28373916998635</v>
+        <v>104.8037629079649</v>
       </c>
       <c r="G15">
-        <v>-0.9481936666185538</v>
+        <v>-0.9532467868698595</v>
       </c>
       <c r="H15">
-        <v>1327.48382356714</v>
+        <v>1336.579179830077</v>
       </c>
       <c r="I15">
-        <v>-1096.915933193677</v>
+        <v>-1049.841139772827</v>
       </c>
       <c r="J15">
-        <v>1333.309823150677</v>
+        <v>1411.257756039742</v>
       </c>
       <c r="K15">
-        <v>2779.843785960312</v>
+        <v>2757.241546907535</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>88.73890058285851</v>
+        <v>88.54608755325259</v>
       </c>
       <c r="G16">
-        <v>16.22858893790725</v>
+        <v>15.13304624054706</v>
       </c>
       <c r="H16">
-        <v>1470.029678573761</v>
+        <v>1390.788786954235</v>
       </c>
       <c r="I16">
-        <v>-1013.130581908808</v>
+        <v>-1006.758356560433</v>
       </c>
       <c r="J16">
-        <v>1298.857573667116</v>
+        <v>1260.398009231769</v>
       </c>
       <c r="K16">
-        <v>2900.461183188394</v>
+        <v>2895.622027935119</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>88.03666126542987</v>
+        <v>82.93117209630537</v>
       </c>
       <c r="G17">
-        <v>30.96816531742018</v>
+        <v>33.31123828112695</v>
       </c>
       <c r="H17">
-        <v>1423.228865713501</v>
+        <v>1470.193247836163</v>
       </c>
       <c r="I17">
-        <v>-973.8810966055322</v>
+        <v>-964.1868068240711</v>
       </c>
       <c r="J17">
-        <v>1279.294406412057</v>
+        <v>1304.337141650584</v>
       </c>
       <c r="K17">
-        <v>2910.053393708006</v>
+        <v>2876.781233134623</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>81.60099948274437</v>
+        <v>81.30842374187347</v>
       </c>
       <c r="G18">
-        <v>48.53879808497489</v>
+        <v>46.95837199975153</v>
       </c>
       <c r="H18">
-        <v>1475.629641176657</v>
+        <v>1484.399503438593</v>
       </c>
       <c r="I18">
-        <v>-959.3197757768802</v>
+        <v>-969.5303203134632</v>
       </c>
       <c r="J18">
-        <v>1186.234375635833</v>
+        <v>1168.910054211822</v>
       </c>
       <c r="K18">
-        <v>3185.395945938044</v>
+        <v>3007.719964886747</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>80.75034865225228</v>
+        <v>75.39036723167311</v>
       </c>
       <c r="G19">
-        <v>62.01315286964246</v>
+        <v>62.08175939420374</v>
       </c>
       <c r="H19">
-        <v>1578.403063644045</v>
+        <v>1514.590139391286</v>
       </c>
       <c r="I19">
-        <v>-902.759999862099</v>
+        <v>-868.1258892082665</v>
       </c>
       <c r="J19">
-        <v>1139.480103096327</v>
+        <v>1202.771395680069</v>
       </c>
       <c r="K19">
-        <v>3133.083704965039</v>
+        <v>2995.536318190754</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>74.8186021084156</v>
+        <v>75.17458001091269</v>
       </c>
       <c r="G20">
-        <v>83.66450405365391</v>
+        <v>79.66785514035882</v>
       </c>
       <c r="H20">
-        <v>1536.533710799196</v>
+        <v>1497.147565250326</v>
       </c>
       <c r="I20">
-        <v>-827.8600750065883</v>
+        <v>-801.0174624341461</v>
       </c>
       <c r="J20">
-        <v>1076.713312353892</v>
+        <v>1147.677344147333</v>
       </c>
       <c r="K20">
-        <v>3184.120113716356</v>
+        <v>3138.680313608351</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>67.59039177838606</v>
+        <v>69.46287119266448</v>
       </c>
       <c r="G21">
-        <v>100.6578991036767</v>
+        <v>97.94334448356094</v>
       </c>
       <c r="H21">
-        <v>1526.330832191991</v>
+        <v>1634.638224504411</v>
       </c>
       <c r="I21">
-        <v>-759.7453682138055</v>
+        <v>-792.88288924255</v>
       </c>
       <c r="J21">
-        <v>1066.771443884482</v>
+        <v>1061.623315985457</v>
       </c>
       <c r="K21">
-        <v>3222.820730637156</v>
+        <v>3300.895190702763</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>67.17383578457496</v>
+        <v>65.0181066954506</v>
       </c>
       <c r="G22">
-        <v>117.5105052490303</v>
+        <v>114.3906302038846</v>
       </c>
       <c r="H22">
-        <v>1663.492891723145</v>
+        <v>1577.456171280483</v>
       </c>
       <c r="I22">
-        <v>-750.9207345988417</v>
+        <v>-770.1713046948806</v>
       </c>
       <c r="J22">
-        <v>1034.99578589612</v>
+        <v>1053.375435017871</v>
       </c>
       <c r="K22">
-        <v>3056.972661587328</v>
+        <v>3225.558211023718</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>67.01366863597177</v>
+        <v>62.78911315687012</v>
       </c>
       <c r="G23">
-        <v>129.5233192102478</v>
+        <v>137.3667034222707</v>
       </c>
       <c r="H23">
-        <v>1659.929044425174</v>
+        <v>1687.885123679779</v>
       </c>
       <c r="I23">
-        <v>-685.2895799459253</v>
+        <v>-716.2489603882433</v>
       </c>
       <c r="J23">
-        <v>976.1528540312195</v>
+        <v>948.28590342779</v>
       </c>
       <c r="K23">
-        <v>3067.270685113879</v>
+        <v>3345.152873104599</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.33089833773394</v>
+        <v>60.56010603289673</v>
       </c>
       <c r="G24">
-        <v>148.3933559140313</v>
+        <v>146.3752030876256</v>
       </c>
       <c r="H24">
-        <v>1672.394202692526</v>
+        <v>1731.408615937639</v>
       </c>
       <c r="I24">
-        <v>-643.7270919047112</v>
+        <v>-671.6700496325861</v>
       </c>
       <c r="J24">
-        <v>937.6656057588389</v>
+        <v>919.4253474769304</v>
       </c>
       <c r="K24">
-        <v>3163.009551454371</v>
+        <v>3217.673479585673</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.53108186281783</v>
+        <v>58.79398284843081</v>
       </c>
       <c r="G25">
-        <v>163.9584664391933</v>
+        <v>162.044779742388</v>
       </c>
       <c r="H25">
-        <v>1606.484644484993</v>
+        <v>1696.545964157808</v>
       </c>
       <c r="I25">
-        <v>-619.9252761983881</v>
+        <v>-579.9907688980064</v>
       </c>
       <c r="J25">
-        <v>916.1085233301104</v>
+        <v>913.0455480030206</v>
       </c>
       <c r="K25">
-        <v>3197.755333667585</v>
+        <v>3056.354173478725</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>57.85281429390594</v>
+        <v>56.93308890408677</v>
       </c>
       <c r="G26">
-        <v>185.9643446583084</v>
+        <v>177.8203470152808</v>
       </c>
       <c r="H26">
-        <v>1659.876758297922</v>
+        <v>1707.487952539902</v>
       </c>
       <c r="I26">
-        <v>-528.7978132991598</v>
+        <v>-557.6151981971711</v>
       </c>
       <c r="J26">
-        <v>852.5112714035241</v>
+        <v>821.0539589715745</v>
       </c>
       <c r="K26">
-        <v>3053.286767188221</v>
+        <v>3179.059021566952</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>57.15883746049641</v>
+        <v>58.35862993395703</v>
       </c>
       <c r="G27">
-        <v>206.1570587836695</v>
+        <v>200.6626399272265</v>
       </c>
       <c r="H27">
-        <v>1685.54629533732</v>
+        <v>1661.795793932712</v>
       </c>
       <c r="I27">
-        <v>-504.0751199558579</v>
+        <v>-481.9348822228357</v>
       </c>
       <c r="J27">
-        <v>767.7460675135986</v>
+        <v>752.7928697434024</v>
       </c>
       <c r="K27">
-        <v>3010.908394771723</v>
+        <v>3028.203515914274</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>59.15616203590583</v>
+        <v>56.94098996581794</v>
       </c>
       <c r="G28">
-        <v>206.816565682093</v>
+        <v>220.0551164246859</v>
       </c>
       <c r="H28">
-        <v>1644.14066296019</v>
+        <v>1739.168201233942</v>
       </c>
       <c r="I28">
-        <v>-445.0627838039745</v>
+        <v>-417.882527513839</v>
       </c>
       <c r="J28">
-        <v>702.0181996748865</v>
+        <v>750.4523149303085</v>
       </c>
       <c r="K28">
-        <v>3044.625529236779</v>
+        <v>2974.721370045287</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>57.64180151017582</v>
+        <v>56.29045450349909</v>
       </c>
       <c r="G29">
-        <v>238.8710573182596</v>
+        <v>226.0529911017132</v>
       </c>
       <c r="H29">
-        <v>1697.430764871693</v>
+        <v>1696.823073354643</v>
       </c>
       <c r="I29">
-        <v>-388.7130100744111</v>
+        <v>-379.027136691534</v>
       </c>
       <c r="J29">
-        <v>702.4464722993995</v>
+        <v>694.2015594947536</v>
       </c>
       <c r="K29">
-        <v>2953.358776778302</v>
+        <v>2797.371095369548</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>55.72008547038396</v>
+        <v>52.09511043101221</v>
       </c>
       <c r="G30">
-        <v>251.1378457564385</v>
+        <v>253.4268628959817</v>
       </c>
       <c r="H30">
-        <v>1781.484576230064</v>
+        <v>1826.786354104997</v>
       </c>
       <c r="I30">
-        <v>-325.8441814398437</v>
+        <v>-312.7734257159079</v>
       </c>
       <c r="J30">
-        <v>645.0986061713642</v>
+        <v>659.1408375232896</v>
       </c>
       <c r="K30">
-        <v>2913.140883286234</v>
+        <v>2722.705015891374</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.75216203981762</v>
+        <v>54.51501395464189</v>
       </c>
       <c r="G31">
-        <v>256.918803272438</v>
+        <v>266.8157138263594</v>
       </c>
       <c r="H31">
-        <v>1735.834816535142</v>
+        <v>1830.941768027076</v>
       </c>
       <c r="I31">
-        <v>-262.2754569929284</v>
+        <v>-271.7165298871321</v>
       </c>
       <c r="J31">
-        <v>582.7508052997827</v>
+        <v>590.0501702319543</v>
       </c>
       <c r="K31">
-        <v>2743.078581491491</v>
+        <v>2724.085049194713</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>53.35615851910712</v>
+        <v>48.91250723361404</v>
       </c>
       <c r="G32">
-        <v>274.1385063307254</v>
+        <v>279.1549837175504</v>
       </c>
       <c r="H32">
-        <v>1865.44552004189</v>
+        <v>1793.885556954507</v>
       </c>
       <c r="I32">
-        <v>-214.6721533558867</v>
+        <v>-199.4663101116112</v>
       </c>
       <c r="J32">
-        <v>527.3430178972167</v>
+        <v>538.0757763517197</v>
       </c>
       <c r="K32">
-        <v>2467.814445203558</v>
+        <v>2502.242812181422</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>52.51445352909025</v>
+        <v>50.34279977336503</v>
       </c>
       <c r="G33">
-        <v>297.23951903241</v>
+        <v>302.4535601222583</v>
       </c>
       <c r="H33">
-        <v>1850.051007758611</v>
+        <v>1875.774450805254</v>
       </c>
       <c r="I33">
-        <v>-149.4047888416986</v>
+        <v>-139.2360598582277</v>
       </c>
       <c r="J33">
-        <v>513.16350726318</v>
+        <v>511.4708549253211</v>
       </c>
       <c r="K33">
-        <v>2341.891439733457</v>
+        <v>2353.054749349524</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.73334286594057</v>
+        <v>51.3395750192936</v>
       </c>
       <c r="G34">
-        <v>302.0910308423599</v>
+        <v>320.5263038537221</v>
       </c>
       <c r="H34">
-        <v>1888.035804208929</v>
+        <v>1858.437922584658</v>
       </c>
       <c r="I34">
-        <v>-82.99492704887761</v>
+        <v>-87.27946147914095</v>
       </c>
       <c r="J34">
-        <v>430.6477563503051</v>
+        <v>433.4596370851057</v>
       </c>
       <c r="K34">
-        <v>2117.51300162612</v>
+        <v>2098.160409803967</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.01316587683731</v>
+        <v>49.12387747322347</v>
       </c>
       <c r="G35">
-        <v>321.5027509540564</v>
+        <v>334.4041030806403</v>
       </c>
       <c r="H35">
-        <v>1749.375838408352</v>
+        <v>1806.994069167481</v>
       </c>
       <c r="I35">
-        <v>-18.49929797173127</v>
+        <v>-19.51425406904335</v>
       </c>
       <c r="J35">
-        <v>379.4194398678857</v>
+        <v>392.0270366156595</v>
       </c>
       <c r="K35">
-        <v>1979.471162962028</v>
+        <v>1973.977442613069</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.72484480640845</v>
+        <v>47.87457597136213</v>
       </c>
       <c r="G36">
-        <v>361.07104006013</v>
+        <v>335.2854566540676</v>
       </c>
       <c r="H36">
-        <v>1854.699984161902</v>
+        <v>1766.851377355763</v>
       </c>
       <c r="I36">
-        <v>45.57679770410995</v>
+        <v>48.33507019146816</v>
       </c>
       <c r="J36">
-        <v>340.7218723077566</v>
+        <v>343.8464785698959</v>
       </c>
       <c r="K36">
-        <v>1830.552052025104</v>
+        <v>1848.579906085705</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.42621371964327</v>
+        <v>48.14715002947698</v>
       </c>
       <c r="G37">
-        <v>354.3584846765567</v>
+        <v>361.0708926650432</v>
       </c>
       <c r="H37">
-        <v>1848.67729269285</v>
+        <v>1844.784716393834</v>
       </c>
       <c r="I37">
-        <v>111.2193636231372</v>
+        <v>113.4761091149088</v>
       </c>
       <c r="J37">
-        <v>291.3290354961367</v>
+        <v>286.6237656432573</v>
       </c>
       <c r="K37">
-        <v>1667.346051751887</v>
+        <v>1550.271062515094</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.34981352422501</v>
+        <v>43.41934840167804</v>
       </c>
       <c r="G38">
-        <v>395.3141450832479</v>
+        <v>372.5497763333792</v>
       </c>
       <c r="H38">
-        <v>1831.079775030001</v>
+        <v>1807.553063309501</v>
       </c>
       <c r="I38">
-        <v>182.326095395805</v>
+        <v>181.0878869693355</v>
       </c>
       <c r="J38">
-        <v>241.6993873756477</v>
+        <v>248.1167158213081</v>
       </c>
       <c r="K38">
-        <v>1350.683825350931</v>
+        <v>1333.713480388063</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.64537810460411</v>
+        <v>44.24813825592798</v>
       </c>
       <c r="G39">
-        <v>401.1857481259739</v>
+        <v>403.6255652903777</v>
       </c>
       <c r="H39">
-        <v>1945.177973930122</v>
+        <v>1865.33903241096</v>
       </c>
       <c r="I39">
-        <v>259.6424971344031</v>
+        <v>245.9843458706774</v>
       </c>
       <c r="J39">
-        <v>207.3596531137404</v>
+        <v>200.5794677725507</v>
       </c>
       <c r="K39">
-        <v>1149.091045291219</v>
+        <v>1131.059487576953</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.65693125320244</v>
+        <v>44.09782144384695</v>
       </c>
       <c r="G40">
-        <v>413.5182946648059</v>
+        <v>412.9136234600601</v>
       </c>
       <c r="H40">
-        <v>1957.133392778482</v>
+        <v>1894.235570526294</v>
       </c>
       <c r="I40">
-        <v>316.5893676214164</v>
+        <v>319.8149836738834</v>
       </c>
       <c r="J40">
-        <v>147.1893770064471</v>
+        <v>151.4084974233834</v>
       </c>
       <c r="K40">
-        <v>936.6193742810088</v>
+        <v>857.8406721793712</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.95220894255603</v>
+        <v>43.50822602005194</v>
       </c>
       <c r="G41">
-        <v>411.7552913738111</v>
+        <v>447.6276798424785</v>
       </c>
       <c r="H41">
-        <v>1888.448736517318</v>
+        <v>1868.798310828524</v>
       </c>
       <c r="I41">
-        <v>393.2074036628223</v>
+        <v>408.6715436518467</v>
       </c>
       <c r="J41">
-        <v>100.1042073279238</v>
+        <v>105.6784048673823</v>
       </c>
       <c r="K41">
-        <v>606.2695539259711</v>
+        <v>599.4382906598797</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.25998797860519</v>
+        <v>42.33564661741595</v>
       </c>
       <c r="G42">
-        <v>455.478580585893</v>
+        <v>426.1170981278069</v>
       </c>
       <c r="H42">
-        <v>1862.978114649559</v>
+        <v>1817.98298169428</v>
       </c>
       <c r="I42">
-        <v>485.2640912787244</v>
+        <v>460.898181522292</v>
       </c>
       <c r="J42">
-        <v>53.4483013182529</v>
+        <v>52.35818150419404</v>
       </c>
       <c r="K42">
-        <v>347.3048999778295</v>
+        <v>338.1683267887187</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.20685353781214</v>
+        <v>40.9989485092207</v>
       </c>
       <c r="G43">
-        <v>460.0498616152248</v>
+        <v>454.0167829945111</v>
       </c>
       <c r="H43">
-        <v>1869.14686489361</v>
+        <v>1811.980372878443</v>
       </c>
       <c r="I43">
-        <v>543.6809439284104</v>
+        <v>541.1026064771871</v>
       </c>
       <c r="J43">
-        <v>5.319483974372186</v>
+        <v>5.194407414157655</v>
       </c>
       <c r="K43">
-        <v>33.54799314989918</v>
+        <v>32.27327716639542</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.94903112419909</v>
+        <v>39.53737152514399</v>
       </c>
       <c r="G44">
-        <v>463.7829698342053</v>
+        <v>473.4907562251759</v>
       </c>
       <c r="H44">
-        <v>1836.441923322559</v>
+        <v>1877.721406539488</v>
       </c>
       <c r="I44">
-        <v>658.6391236810332</v>
+        <v>658.4951764031538</v>
       </c>
       <c r="J44">
-        <v>-41.31425004389854</v>
+        <v>-45.36648757489824</v>
       </c>
       <c r="K44">
-        <v>-288.2971188340174</v>
+        <v>-290.5999574645283</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.80786974702853</v>
+        <v>41.98766036700912</v>
       </c>
       <c r="G45">
-        <v>470.0302540158816</v>
+        <v>507.009905056536</v>
       </c>
       <c r="H45">
-        <v>1823.724113738828</v>
+        <v>1887.046616255015</v>
       </c>
       <c r="I45">
-        <v>700.616573295032</v>
+        <v>708.845132294398</v>
       </c>
       <c r="J45">
-        <v>-89.82833468580375</v>
+        <v>-87.9178377618347</v>
       </c>
       <c r="K45">
-        <v>-610.9921233493382</v>
+        <v>-631.9060987910075</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.39330371103851</v>
+        <v>41.41845238450258</v>
       </c>
       <c r="G46">
-        <v>501.2505763160859</v>
+        <v>509.1685480369837</v>
       </c>
       <c r="H46">
-        <v>1919.00012945692</v>
+        <v>1992.241167073938</v>
       </c>
       <c r="I46">
-        <v>796.4807459187172</v>
+        <v>770.1608977071008</v>
       </c>
       <c r="J46">
-        <v>-143.2263539070211</v>
+        <v>-137.9077417454406</v>
       </c>
       <c r="K46">
-        <v>-920.9306250927692</v>
+        <v>-932.9718676407944</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.08078751157142</v>
+        <v>39.61630586444463</v>
       </c>
       <c r="G47">
-        <v>549.0794387730492</v>
+        <v>507.1552768885676</v>
       </c>
       <c r="H47">
-        <v>1952.488541341584</v>
+        <v>1940.863201436633</v>
       </c>
       <c r="I47">
-        <v>862.1043825718111</v>
+        <v>870.2515365201583</v>
       </c>
       <c r="J47">
-        <v>-192.0347287884704</v>
+        <v>-189.9225355970594</v>
       </c>
       <c r="K47">
-        <v>-1261.143499206667</v>
+        <v>-1372.313512242643</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.71595602721238</v>
+        <v>39.35393224315133</v>
       </c>
       <c r="G48">
-        <v>560.4836912185096</v>
+        <v>554.8276987214542</v>
       </c>
       <c r="H48">
-        <v>1870.570132857104</v>
+        <v>1903.58441058461</v>
       </c>
       <c r="I48">
-        <v>993.7425376493865</v>
+        <v>938.9224307424518</v>
       </c>
       <c r="J48">
-        <v>-245.698074463548</v>
+        <v>-234.6567999355545</v>
       </c>
       <c r="K48">
-        <v>-1658.626655143985</v>
+        <v>-1683.138058081801</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.38061923853395</v>
+        <v>40.34426457832846</v>
       </c>
       <c r="G49">
-        <v>546.7828547657921</v>
+        <v>583.481945393117</v>
       </c>
       <c r="H49">
-        <v>2014.47942787932</v>
+        <v>2021.053277921072</v>
       </c>
       <c r="I49">
-        <v>1051.127770766255</v>
+        <v>1073.101310031743</v>
       </c>
       <c r="J49">
-        <v>-291.7666512772104</v>
+        <v>-295.1496106905383</v>
       </c>
       <c r="K49">
-        <v>-2100.811931562479</v>
+        <v>-2083.090382475625</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.65345251660077</v>
+        <v>38.38886517115267</v>
       </c>
       <c r="G50">
-        <v>592.0974057322896</v>
+        <v>600.7662587994752</v>
       </c>
       <c r="H50">
-        <v>1976.238821210735</v>
+        <v>1907.173283203043</v>
       </c>
       <c r="I50">
-        <v>1143.093644521626</v>
+        <v>1219.872418226541</v>
       </c>
       <c r="J50">
-        <v>-321.1051624052821</v>
+        <v>-348.5828544787622</v>
       </c>
       <c r="K50">
-        <v>-2517.852613925931</v>
+        <v>-2587.754977498937</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.68028937473687</v>
+        <v>36.80893844371649</v>
       </c>
       <c r="G51">
-        <v>615.4490936021888</v>
+        <v>579.4730566564738</v>
       </c>
       <c r="H51">
-        <v>2030.577085967582</v>
+        <v>1873.74571419379</v>
       </c>
       <c r="I51">
-        <v>1219.12032627736</v>
+        <v>1295.69971636126</v>
       </c>
       <c r="J51">
-        <v>-365.001633243934</v>
+        <v>-372.5307482866553</v>
       </c>
       <c r="K51">
-        <v>-2842.848672326159</v>
+        <v>-3060.243248095861</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.90062154447514</v>
+        <v>37.01531543961445</v>
       </c>
       <c r="G52">
-        <v>600.0191014519069</v>
+        <v>593.5240380402797</v>
       </c>
       <c r="H52">
-        <v>1912.519160604994</v>
+        <v>1940.660527179955</v>
       </c>
       <c r="I52">
-        <v>1357.035845851934</v>
+        <v>1393.539963964587</v>
       </c>
       <c r="J52">
-        <v>-441.2340700067756</v>
+        <v>-426.2015761327911</v>
       </c>
       <c r="K52">
-        <v>-3514.734910171233</v>
+        <v>-3471.367590567516</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.63869663894229</v>
+        <v>37.71634331303642</v>
       </c>
       <c r="G53">
-        <v>640.8234047947676</v>
+        <v>612.145930409128</v>
       </c>
       <c r="H53">
-        <v>1999.666494324375</v>
+        <v>1940.782203822631</v>
       </c>
       <c r="I53">
-        <v>1440.221032469278</v>
+        <v>1525.303425932844</v>
       </c>
       <c r="J53">
-        <v>-497.55323224581</v>
+        <v>-499.5882687990332</v>
       </c>
       <c r="K53">
-        <v>-3745.055471960638</v>
+        <v>-3863.810586970666</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.18045192917297</v>
+        <v>38.08304977479364</v>
       </c>
       <c r="G54">
-        <v>617.8447798739787</v>
+        <v>634.6500047827268</v>
       </c>
       <c r="H54">
-        <v>1943.892210836492</v>
+        <v>2022.158795979329</v>
       </c>
       <c r="I54">
-        <v>1507.51152416809</v>
+        <v>1485.996181420426</v>
       </c>
       <c r="J54">
-        <v>-530.065326200512</v>
+        <v>-550.0109858677439</v>
       </c>
       <c r="K54">
-        <v>-4298.490368457247</v>
+        <v>-4166.349704052713</v>
       </c>
     </row>
   </sheetData>
